--- a/results/mp/tinybert/corona/confidence/210/stop-words-topk-masking-0.5/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/210/stop-words-topk-masking-0.5/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="87">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,66 +43,63 @@
     <t>crude</t>
   </si>
   <si>
+    <t>warning</t>
+  </si>
+  <si>
+    <t>forced</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>warning</t>
-  </si>
-  <si>
-    <t>died</t>
-  </si>
-  <si>
-    <t>forced</t>
-  </si>
-  <si>
-    <t>crisis</t>
-  </si>
-  <si>
     <t>war</t>
   </si>
   <si>
+    <t>fuck</t>
+  </si>
+  <si>
     <t>die</t>
   </si>
   <si>
+    <t>shame</t>
+  </si>
+  <si>
     <t>shit</t>
   </si>
   <si>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>shortage</t>
+  </si>
+  <si>
     <t>emergency</t>
   </si>
   <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>isolation</t>
-  </si>
-  <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>shortage</t>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>empty</t>
+  </si>
+  <si>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>fight</t>
   </si>
   <si>
     <t>risk</t>
   </si>
   <si>
-    <t>drop</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>fight</t>
-  </si>
-  <si>
-    <t>empty</t>
-  </si>
-  <si>
     <t>stop</t>
   </si>
   <si>
@@ -118,175 +115,163 @@
     <t>negative</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
     <t>love</t>
   </si>
   <si>
-    <t>best</t>
+    <t>great</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>safety</t>
   </si>
   <si>
     <t>happy</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>safety</t>
+    <t>better</t>
   </si>
   <si>
     <t>nice</t>
   </si>
   <si>
-    <t>free</t>
+    <t>support</t>
+  </si>
+  <si>
+    <t>good</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
     <t>fresh</t>
   </si>
   <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>energy</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
     <t>relief</t>
   </si>
   <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>energy</t>
-  </si>
-  <si>
-    <t>care</t>
+    <t>confidence</t>
   </si>
   <si>
     <t>please</t>
   </si>
   <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>hope</t>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>sure</t>
   </si>
   <si>
     <t>protect</t>
   </si>
   <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>key</t>
-  </si>
-  <si>
     <t>share</t>
   </si>
   <si>
+    <t>available</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
     <t>health</t>
   </si>
   <si>
-    <t>want</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
     <t>shopping</t>
   </si>
   <si>
+    <t>store</t>
+  </si>
+  <si>
     <t>local</t>
   </si>
   <si>
-    <t>online</t>
+    <t>home</t>
+  </si>
+  <si>
+    <t>buy</t>
   </si>
   <si>
     <t>new</t>
   </si>
   <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>social</t>
+    <t>supermarket</t>
   </si>
   <si>
     <t>stock</t>
   </si>
   <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
     <t>consumer</t>
   </si>
   <si>
-    <t>grocery</t>
+    <t>19</t>
   </si>
   <si>
     <t>san</t>
   </si>
   <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>stay</t>
-  </si>
-  <si>
-    <t>19</t>
+    <t>toilet</t>
   </si>
   <si>
     <t>food</t>
-  </si>
-  <si>
-    <t>people</t>
   </si>
   <si>
     <t>prices</t>
@@ -647,7 +632,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q62"/>
+  <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -655,10 +640,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -716,13 +701,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9411764705882353</v>
+        <v>0.9117647058823529</v>
       </c>
       <c r="C3">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D3">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -734,31 +719,31 @@
         <v>0</v>
       </c>
       <c r="H3">
+        <v>3</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3">
+        <v>0.9661016949152542</v>
+      </c>
+      <c r="L3">
+        <v>57</v>
+      </c>
+      <c r="M3">
+        <v>57</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q3">
         <v>2</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K3">
-        <v>0.9696969696969697</v>
-      </c>
-      <c r="L3">
-        <v>32</v>
-      </c>
-      <c r="M3">
-        <v>32</v>
-      </c>
-      <c r="N3">
-        <v>1</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -766,13 +751,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8055555555555556</v>
+        <v>0.8</v>
       </c>
       <c r="C4">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D4">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -784,19 +769,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K4">
-        <v>0.9347826086956522</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="L4">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="M4">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -808,7 +793,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -816,13 +801,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="C5">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D5">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -834,19 +819,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K5">
-        <v>0.9152542372881356</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="L5">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="M5">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -858,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -866,13 +851,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7692307692307693</v>
+        <v>0.7226027397260274</v>
       </c>
       <c r="C6">
-        <v>20</v>
+        <v>211</v>
       </c>
       <c r="D6">
-        <v>20</v>
+        <v>211</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -884,19 +869,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>6</v>
+        <v>81</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K6">
-        <v>0.8846153846153846</v>
+        <v>0.8392857142857143</v>
       </c>
       <c r="L6">
-        <v>23</v>
+        <v>94</v>
       </c>
       <c r="M6">
-        <v>23</v>
+        <v>94</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -908,7 +893,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -916,13 +901,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7241379310344828</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="C7">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D7">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -934,19 +919,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K7">
-        <v>0.8780487804878049</v>
+        <v>0.8309859154929577</v>
       </c>
       <c r="L7">
-        <v>72</v>
+        <v>118</v>
       </c>
       <c r="M7">
-        <v>72</v>
+        <v>118</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -958,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -966,13 +951,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7054794520547946</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="C8">
-        <v>206</v>
+        <v>24</v>
       </c>
       <c r="D8">
-        <v>206</v>
+        <v>24</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -984,19 +969,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>86</v>
+        <v>14</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K8">
-        <v>0.8723404255319149</v>
+        <v>0.8292682926829268</v>
       </c>
       <c r="L8">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="M8">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1008,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1016,13 +1001,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.5526315789473685</v>
+        <v>0.5897435897435898</v>
       </c>
       <c r="C9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1034,19 +1019,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K9">
-        <v>0.8482142857142857</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="L9">
-        <v>95</v>
+        <v>47</v>
       </c>
       <c r="M9">
-        <v>95</v>
+        <v>47</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1058,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1066,13 +1051,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.5405405405405406</v>
+        <v>0.5675675675675675</v>
       </c>
       <c r="C10">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D10">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1084,19 +1069,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K10">
-        <v>0.8359375</v>
+        <v>0.8046875</v>
       </c>
       <c r="L10">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="M10">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1108,7 +1093,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1116,13 +1101,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5128205128205128</v>
+        <v>0.5135135135135135</v>
       </c>
       <c r="C11">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D11">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1134,19 +1119,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K11">
-        <v>0.823943661971831</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="L11">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="M11">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1166,13 +1151,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5066666666666667</v>
+        <v>0.4871794871794872</v>
       </c>
       <c r="C12">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="D12">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1184,19 +1169,19 @@
         <v>0</v>
       </c>
       <c r="H12">
+        <v>20</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K12">
+        <v>0.7872340425531915</v>
+      </c>
+      <c r="L12">
         <v>37</v>
       </c>
-      <c r="J12" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K12">
-        <v>0.8103448275862069</v>
-      </c>
-      <c r="L12">
-        <v>47</v>
-      </c>
       <c r="M12">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1208,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1216,13 +1201,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.4871794871794872</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="C13">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D13">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1234,10 +1219,10 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K13">
         <v>0.7843137254901961</v>
@@ -1266,13 +1251,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.4429530201342282</v>
+        <v>0.4476744186046512</v>
       </c>
       <c r="C14">
-        <v>66</v>
+        <v>231</v>
       </c>
       <c r="D14">
-        <v>66</v>
+        <v>231</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1284,19 +1269,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>83</v>
+        <v>285</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K14">
-        <v>0.7777777777777778</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="L14">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M14">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1316,13 +1301,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.4117647058823529</v>
+        <v>0.4429530201342282</v>
       </c>
       <c r="C15">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="D15">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1334,19 +1319,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>30</v>
+        <v>83</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K15">
-        <v>0.775</v>
+        <v>0.7619047619047619</v>
       </c>
       <c r="L15">
-        <v>93</v>
+        <v>48</v>
       </c>
       <c r="M15">
-        <v>93</v>
+        <v>48</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1358,7 +1343,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>27</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1366,13 +1351,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.4117647058823529</v>
+        <v>0.4067796610169492</v>
       </c>
       <c r="C16">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D16">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1384,19 +1369,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K16">
-        <v>0.7553191489361702</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="L16">
-        <v>71</v>
+        <v>20</v>
       </c>
       <c r="M16">
-        <v>71</v>
+        <v>20</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1408,7 +1393,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1416,13 +1401,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.4108527131782946</v>
+        <v>0.4</v>
       </c>
       <c r="C17">
-        <v>212</v>
+        <v>30</v>
       </c>
       <c r="D17">
-        <v>212</v>
+        <v>30</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1434,19 +1419,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>304</v>
+        <v>45</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K17">
-        <v>0.7169811320754716</v>
+        <v>0.7358490566037735</v>
       </c>
       <c r="L17">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="M17">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1458,7 +1443,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1466,13 +1451,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.3898305084745763</v>
+        <v>0.3386243386243386</v>
       </c>
       <c r="C18">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="D18">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1484,31 +1469,31 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>36</v>
+        <v>125</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K18">
-        <v>0.7142857142857143</v>
+        <v>0.71875</v>
       </c>
       <c r="L18">
+        <v>115</v>
+      </c>
+      <c r="M18">
+        <v>115</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q18">
         <v>45</v>
-      </c>
-      <c r="M18">
-        <v>45</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1516,13 +1501,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.3636363636363636</v>
+        <v>0.3222222222222222</v>
       </c>
       <c r="C19">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D19">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1534,19 +1519,19 @@
         <v>0</v>
       </c>
       <c r="H19">
+        <v>61</v>
+      </c>
+      <c r="J19" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="J19" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="K19">
-        <v>0.70625</v>
+        <v>0.6914893617021277</v>
       </c>
       <c r="L19">
-        <v>113</v>
+        <v>65</v>
       </c>
       <c r="M19">
-        <v>113</v>
+        <v>65</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1558,7 +1543,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>47</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1566,13 +1551,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.3559322033898305</v>
+        <v>0.3220338983050847</v>
       </c>
       <c r="C20">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D20">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1584,10 +1569,10 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K20">
         <v>0.6666666666666666</v>
@@ -1616,37 +1601,37 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.3404255319148936</v>
+        <v>0.2875</v>
       </c>
       <c r="C21">
-        <v>64</v>
+        <v>23</v>
       </c>
       <c r="D21">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="E21">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21">
-        <v>124</v>
+        <v>57</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K21">
-        <v>0.66</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L21">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="M21">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1658,7 +1643,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1666,37 +1651,37 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.3037974683544304</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="C22">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D22">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="G22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22">
         <v>55</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K22">
-        <v>0.6449086161879896</v>
+        <v>0.6475195822454308</v>
       </c>
       <c r="L22">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M22">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1708,7 +1693,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1716,13 +1701,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.2555555555555555</v>
+        <v>0.25</v>
       </c>
       <c r="C23">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="D23">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1734,19 +1719,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>67</v>
+        <v>189</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K23">
-        <v>0.6176470588235294</v>
+        <v>0.6046511627906976</v>
       </c>
       <c r="L23">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="M23">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1758,7 +1743,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1766,13 +1751,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.2301587301587301</v>
+        <v>0.1474530831099196</v>
       </c>
       <c r="C24">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D24">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1784,19 +1769,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>194</v>
+        <v>318</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K24">
-        <v>0.5882352941176471</v>
+        <v>0.6</v>
       </c>
       <c r="L24">
-        <v>200</v>
+        <v>27</v>
       </c>
       <c r="M24">
-        <v>200</v>
+        <v>27</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1808,7 +1793,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>140</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1816,37 +1801,37 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.1554959785522788</v>
+        <v>0.008922880815806247</v>
       </c>
       <c r="C25">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="D25">
-        <v>58</v>
+        <v>91</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.3100000000000001</v>
       </c>
       <c r="G25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25">
-        <v>315</v>
+        <v>3110</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K25">
-        <v>0.5833333333333334</v>
+        <v>0.6</v>
       </c>
       <c r="L25">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="M25">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1858,7 +1843,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1866,78 +1851,54 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.008664955070603338</v>
+        <v>0.006343906510851419</v>
       </c>
       <c r="C26">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D26">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="E26">
-        <v>0.76</v>
+        <v>0.85</v>
       </c>
       <c r="F26">
-        <v>0.24</v>
+        <v>0.15</v>
       </c>
       <c r="G26" t="b">
         <v>1</v>
       </c>
       <c r="H26">
-        <v>3089</v>
+        <v>2976</v>
       </c>
       <c r="J26" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K26">
+        <v>0.5970588235294118</v>
+      </c>
+      <c r="L26">
+        <v>203</v>
+      </c>
+      <c r="M26">
+        <v>203</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="J27" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="K26">
-        <v>0.5796610169491525</v>
-      </c>
-      <c r="L26">
-        <v>171</v>
-      </c>
-      <c r="M26">
-        <v>171</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17">
-      <c r="A27" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27">
-        <v>0.008032128514056224</v>
-      </c>
-      <c r="C27">
-        <v>24</v>
-      </c>
-      <c r="D27">
-        <v>143</v>
-      </c>
-      <c r="E27">
-        <v>0.83</v>
-      </c>
-      <c r="F27">
-        <v>0.17</v>
-      </c>
-      <c r="G27" t="b">
-        <v>1</v>
-      </c>
-      <c r="H27">
-        <v>2964</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="K27">
         <v>0.575</v>
@@ -1963,16 +1924,16 @@
     </row>
     <row r="28" spans="1:17">
       <c r="J28" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K28">
-        <v>0.5730337078651685</v>
+        <v>0.559322033898305</v>
       </c>
       <c r="L28">
-        <v>51</v>
+        <v>165</v>
       </c>
       <c r="M28">
-        <v>51</v>
+        <v>165</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1984,21 +1945,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>38</v>
+        <v>130</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K29">
-        <v>0.5606694560669456</v>
+        <v>0.550561797752809</v>
       </c>
       <c r="L29">
-        <v>134</v>
+        <v>49</v>
       </c>
       <c r="M29">
-        <v>134</v>
+        <v>49</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2010,21 +1971,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>105</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K30">
-        <v>0.5555555555555556</v>
+        <v>0.54</v>
       </c>
       <c r="L30">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="M30">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2036,21 +1997,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K31">
-        <v>0.5384615384615384</v>
+        <v>0.5277777777777778</v>
       </c>
       <c r="L31">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="M31">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2062,21 +2023,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>30</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K32">
-        <v>0.4931506849315068</v>
+        <v>0.502092050209205</v>
       </c>
       <c r="L32">
-        <v>36</v>
+        <v>120</v>
       </c>
       <c r="M32">
-        <v>36</v>
+        <v>120</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2088,21 +2049,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>37</v>
+        <v>119</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K33">
-        <v>0.4883720930232558</v>
+        <v>0.5</v>
       </c>
       <c r="L33">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="M33">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2114,21 +2075,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>22</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K34">
-        <v>0.484375</v>
+        <v>0.453125</v>
       </c>
       <c r="L34">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="M34">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2140,21 +2101,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K35">
-        <v>0.4743589743589743</v>
+        <v>0.4246575342465753</v>
       </c>
       <c r="L35">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="M35">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2166,21 +2127,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K36">
-        <v>0.4680851063829787</v>
+        <v>0.4142857142857143</v>
       </c>
       <c r="L36">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="M36">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2192,21 +2153,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>25</v>
+        <v>41</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K37">
-        <v>0.4</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="L37">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="M37">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2218,47 +2179,47 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K38">
-        <v>0.2153846153846154</v>
+        <v>0.2057416267942584</v>
       </c>
       <c r="L38">
-        <v>28</v>
+        <v>86</v>
       </c>
       <c r="M38">
-        <v>29</v>
+        <v>86</v>
       </c>
       <c r="N38">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O38">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q38">
-        <v>102</v>
+        <v>332</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K39">
-        <v>0.2105263157894737</v>
+        <v>0.1811023622047244</v>
       </c>
       <c r="L39">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="M39">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2270,47 +2231,47 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>75</v>
+        <v>104</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K40">
-        <v>0.1811023622047244</v>
+        <v>0.1769230769230769</v>
       </c>
       <c r="L40">
         <v>23</v>
       </c>
       <c r="M40">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N40">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O40">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q40">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K41">
-        <v>0.1802884615384615</v>
+        <v>0.1706730769230769</v>
       </c>
       <c r="L41">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="M41">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2322,21 +2283,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>341</v>
+        <v>345</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K42">
-        <v>0.1779141104294479</v>
+        <v>0.1263982102908277</v>
       </c>
       <c r="L42">
-        <v>29</v>
+        <v>113</v>
       </c>
       <c r="M42">
-        <v>29</v>
+        <v>113</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2348,73 +2309,73 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>134</v>
+        <v>781</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K43">
-        <v>0.1726618705035971</v>
+        <v>0.1226993865030675</v>
       </c>
       <c r="L43">
-        <v>72</v>
+        <v>20</v>
       </c>
       <c r="M43">
-        <v>73</v>
+        <v>20</v>
       </c>
       <c r="N43">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O43">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q43">
-        <v>345</v>
+        <v>143</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K44">
-        <v>0.1588785046728972</v>
+        <v>0.1116279069767442</v>
       </c>
       <c r="L44">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="M44">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="N44">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O44">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q44">
-        <v>180</v>
+        <v>191</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K45">
-        <v>0.1572327044025157</v>
+        <v>0.1104651162790698</v>
       </c>
       <c r="L45">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="M45">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2426,21 +2387,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>134</v>
+        <v>153</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K46">
-        <v>0.1488372093023256</v>
+        <v>0.09767441860465116</v>
       </c>
       <c r="L46">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="M46">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2452,21 +2413,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>183</v>
+        <v>194</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K47">
-        <v>0.1212121212121212</v>
+        <v>0.09342560553633218</v>
       </c>
       <c r="L47">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="M47">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2478,397 +2439,293 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>145</v>
+        <v>786</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K48">
-        <v>0.1162790697674419</v>
+        <v>0.09202453987730061</v>
       </c>
       <c r="L48">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="M48">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="N48">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O48">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q48">
-        <v>152</v>
+        <v>296</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K49">
-        <v>0.1152125279642058</v>
+        <v>0.08453837597330367</v>
       </c>
       <c r="L49">
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="M49">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="N49">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O49">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q49">
-        <v>791</v>
+        <v>823</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K50">
-        <v>0.1140350877192982</v>
+        <v>0.08116883116883117</v>
       </c>
       <c r="L50">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M50">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="N50">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O50">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q50">
-        <v>202</v>
+        <v>283</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K51">
-        <v>0.09480122324159021</v>
+        <v>0.07561728395061729</v>
       </c>
       <c r="L51">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="M51">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="N51">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O51">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q51">
-        <v>296</v>
+        <v>599</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K52">
-        <v>0.0913312693498452</v>
+        <v>0.06469760900140648</v>
       </c>
       <c r="L52">
-        <v>59</v>
+        <v>138</v>
       </c>
       <c r="M52">
-        <v>63</v>
+        <v>148</v>
       </c>
       <c r="N52">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="O52">
-        <v>0.06000000000000005</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P52" t="b">
         <v>1</v>
       </c>
       <c r="Q52">
-        <v>587</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K53">
-        <v>0.08453837597330367</v>
+        <v>0.05967078189300411</v>
       </c>
       <c r="L53">
-        <v>76</v>
+        <v>29</v>
       </c>
       <c r="M53">
-        <v>78</v>
+        <v>29</v>
       </c>
       <c r="N53">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O53">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q53">
-        <v>823</v>
+        <v>457</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="K54">
-        <v>0.07422680412371134</v>
+        <v>0.03626943005181347</v>
       </c>
       <c r="L54">
-        <v>36</v>
+        <v>112</v>
       </c>
       <c r="M54">
-        <v>37</v>
+        <v>131</v>
       </c>
       <c r="N54">
-        <v>0.97</v>
+        <v>0.85</v>
       </c>
       <c r="O54">
-        <v>0.03000000000000003</v>
+        <v>0.15</v>
       </c>
       <c r="P54" t="b">
         <v>1</v>
       </c>
       <c r="Q54">
-        <v>449</v>
+        <v>2976</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K55">
-        <v>0.07390300230946882</v>
+        <v>0.03374777975133215</v>
       </c>
       <c r="L55">
-        <v>64</v>
+        <v>19</v>
       </c>
       <c r="M55">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="N55">
-        <v>0.98</v>
+        <v>0.83</v>
       </c>
       <c r="O55">
-        <v>0.02000000000000002</v>
+        <v>0.17</v>
       </c>
       <c r="P55" t="b">
         <v>1</v>
       </c>
       <c r="Q55">
-        <v>802</v>
+        <v>544</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K56">
-        <v>0.06818181818181818</v>
+        <v>0.02916666666666667</v>
       </c>
       <c r="L56">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="M56">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="N56">
-        <v>1</v>
+        <v>0.78</v>
       </c>
       <c r="O56">
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="P56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q56">
-        <v>287</v>
+        <v>932</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>88</v>
+        <v>30</v>
       </c>
       <c r="K57">
-        <v>0.06763738844527947</v>
+        <v>0.01985502678852821</v>
       </c>
       <c r="L57">
-        <v>144</v>
+        <v>63</v>
       </c>
       <c r="M57">
-        <v>158</v>
+        <v>91</v>
       </c>
       <c r="N57">
-        <v>0.91</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="O57">
-        <v>0.08999999999999997</v>
+        <v>0.3100000000000001</v>
       </c>
       <c r="P57" t="b">
         <v>1</v>
       </c>
       <c r="Q57">
-        <v>1985</v>
+        <v>3110</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="K58">
-        <v>0.04266389177939646</v>
+        <v>0.01642178046672429</v>
       </c>
       <c r="L58">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="M58">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="N58">
-        <v>0.85</v>
+        <v>0.83</v>
       </c>
       <c r="O58">
-        <v>0.15</v>
+        <v>0.17</v>
       </c>
       <c r="P58" t="b">
         <v>1</v>
       </c>
       <c r="Q58">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="59" spans="10:17">
-      <c r="J59" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K59">
-        <v>0.03859876743431722</v>
-      </c>
-      <c r="L59">
-        <v>119</v>
-      </c>
-      <c r="M59">
-        <v>143</v>
-      </c>
-      <c r="N59">
-        <v>0.83</v>
-      </c>
-      <c r="O59">
-        <v>0.17</v>
-      </c>
-      <c r="P59" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q59">
-        <v>2964</v>
-      </c>
-    </row>
-    <row r="60" spans="10:17">
-      <c r="J60" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="K60">
-        <v>0.03512014787430684</v>
-      </c>
-      <c r="L60">
-        <v>19</v>
-      </c>
-      <c r="M60">
-        <v>23</v>
-      </c>
-      <c r="N60">
-        <v>0.83</v>
-      </c>
-      <c r="O60">
-        <v>0.17</v>
-      </c>
-      <c r="P60" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q60">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="61" spans="10:17">
-      <c r="J61" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K61">
-        <v>0.02678008821676119</v>
-      </c>
-      <c r="L61">
-        <v>85</v>
-      </c>
-      <c r="M61">
-        <v>112</v>
-      </c>
-      <c r="N61">
-        <v>0.76</v>
-      </c>
-      <c r="O61">
-        <v>0.24</v>
-      </c>
-      <c r="P61" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q61">
-        <v>3089</v>
-      </c>
-    </row>
-    <row r="62" spans="10:17">
-      <c r="J62" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="K62">
-        <v>0.0216076058772688</v>
-      </c>
-      <c r="L62">
-        <v>25</v>
-      </c>
-      <c r="M62">
-        <v>29</v>
-      </c>
-      <c r="N62">
-        <v>0.86</v>
-      </c>
-      <c r="O62">
-        <v>0.14</v>
-      </c>
-      <c r="P62" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q62">
-        <v>1132</v>
+        <v>1138</v>
       </c>
     </row>
   </sheetData>

--- a/results/mp/tinybert/corona/confidence/210/stop-words-topk-masking-0.5/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/210/stop-words-topk-masking-0.5/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="101">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,180 +46,201 @@
     <t>warning</t>
   </si>
   <si>
+    <t>fraud</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
     <t>forced</t>
   </si>
   <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>fraud</t>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>fuck</t>
   </si>
   <si>
     <t>war</t>
   </si>
   <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>die</t>
-  </si>
-  <si>
     <t>shame</t>
   </si>
   <si>
-    <t>shit</t>
+    <t>selfish</t>
+  </si>
+  <si>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>emergency</t>
   </si>
   <si>
     <t>fears</t>
   </si>
   <si>
-    <t>panic</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
+    <t>sc</t>
+  </si>
+  <si>
     <t>shortage</t>
   </si>
   <si>
-    <t>emergency</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
     <t>empty</t>
   </si>
   <si>
-    <t>drop</t>
+    <t>risk</t>
   </si>
   <si>
     <t>fight</t>
   </si>
   <si>
-    <t>risk</t>
-  </si>
-  <si>
     <t>stop</t>
   </si>
   <si>
     <t>demand</t>
   </si>
   <si>
+    <t>co</t>
+  </si>
+  <si>
     <t>corona</t>
   </si>
   <si>
-    <t>co</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>interesting</t>
-  </si>
-  <si>
     <t>love</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
     <t>great</t>
   </si>
   <si>
+    <t>thanks</t>
+  </si>
+  <si>
     <t>safe</t>
   </si>
   <si>
-    <t>thanks</t>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>free</t>
   </si>
   <si>
     <t>positive</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
     <t>heroes</t>
   </si>
   <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
     <t>safety</t>
   </si>
   <si>
-    <t>happy</t>
+    <t>support</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>good</t>
+    <t>healthy</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>join</t>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>energy</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>share</t>
   </si>
   <si>
     <t>important</t>
   </si>
   <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>energy</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>share</t>
+    <t>key</t>
   </si>
   <si>
     <t>available</t>
   </si>
   <si>
+    <t>want</t>
+  </si>
+  <si>
     <t>online</t>
   </si>
   <si>
@@ -229,46 +250,67 @@
     <t>health</t>
   </si>
   <si>
+    <t>new</t>
+  </si>
+  <si>
     <t>shopping</t>
   </si>
   <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>today</t>
+  </si>
+  <si>
     <t>store</t>
   </si>
   <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>new</t>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>san</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>social</t>
   </si>
   <si>
     <t>supermarket</t>
   </si>
   <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>grocery</t>
+    <t>us</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>consumer</t>
   </si>
   <si>
     <t>stay</t>
   </si>
   <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>san</t>
+    <t>amp</t>
   </si>
   <si>
     <t>toilet</t>
+  </si>
+  <si>
+    <t>people</t>
   </si>
   <si>
     <t>food</t>
@@ -632,7 +674,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q58"/>
+  <dimension ref="A1:Q73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -640,10 +682,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -722,16 +764,16 @@
         <v>3</v>
       </c>
       <c r="J3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
         <v>33</v>
       </c>
-      <c r="K3">
-        <v>0.9661016949152542</v>
-      </c>
-      <c r="L3">
-        <v>57</v>
-      </c>
       <c r="M3">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -743,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -751,13 +793,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8</v>
+        <v>0.84</v>
       </c>
       <c r="C4">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D4">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -769,19 +811,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K4">
-        <v>0.9393939393939394</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L4">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="M4">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -793,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -801,13 +843,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7241379310344828</v>
+        <v>0.75</v>
       </c>
       <c r="C5">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D5">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -819,19 +861,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K5">
-        <v>0.9130434782608695</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L5">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M5">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -843,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -872,16 +914,16 @@
         <v>81</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K6">
-        <v>0.8392857142857143</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="L6">
-        <v>94</v>
+        <v>24</v>
       </c>
       <c r="M6">
-        <v>94</v>
+        <v>24</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -893,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>18</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -901,13 +943,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7222222222222222</v>
+        <v>0.6551724137931034</v>
       </c>
       <c r="C7">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D7">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -922,16 +964,16 @@
         <v>10</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K7">
-        <v>0.8309859154929577</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L7">
-        <v>118</v>
+        <v>24</v>
       </c>
       <c r="M7">
-        <v>118</v>
+        <v>24</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -943,7 +985,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>24</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -951,7 +993,7 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.631578947368421</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="C8">
         <v>24</v>
@@ -969,19 +1011,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K8">
-        <v>0.8292682926829268</v>
+        <v>0.8839285714285714</v>
       </c>
       <c r="L8">
-        <v>68</v>
+        <v>99</v>
       </c>
       <c r="M8">
-        <v>68</v>
+        <v>99</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -993,7 +1035,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1022,16 +1064,16 @@
         <v>16</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K9">
-        <v>0.8103448275862069</v>
+        <v>0.8536585365853658</v>
       </c>
       <c r="L9">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="M9">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1043,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1051,13 +1093,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.5675675675675675</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="C10">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D10">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1072,16 +1114,16 @@
         <v>16</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K10">
-        <v>0.8046875</v>
+        <v>0.8380281690140845</v>
       </c>
       <c r="L10">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="M10">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1093,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1101,13 +1143,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5135135135135135</v>
+        <v>0.5675675675675675</v>
       </c>
       <c r="C11">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D11">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1119,19 +1161,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K11">
-        <v>0.7916666666666666</v>
+        <v>0.8359375</v>
       </c>
       <c r="L11">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="M11">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1143,7 +1185,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1151,13 +1193,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.4871794871794872</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="C12">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D12">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1169,31 +1211,31 @@
         <v>0</v>
       </c>
       <c r="H12">
+        <v>16</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K12">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="L12">
+        <v>100</v>
+      </c>
+      <c r="M12">
+        <v>100</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q12">
         <v>20</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K12">
-        <v>0.7872340425531915</v>
-      </c>
-      <c r="L12">
-        <v>37</v>
-      </c>
-      <c r="M12">
-        <v>37</v>
-      </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1201,13 +1243,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.4705882352941176</v>
+        <v>0.4341085271317829</v>
       </c>
       <c r="C13">
-        <v>24</v>
+        <v>224</v>
       </c>
       <c r="D13">
-        <v>24</v>
+        <v>224</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1219,19 +1261,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>27</v>
+        <v>292</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K13">
-        <v>0.7843137254901961</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="L13">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="M13">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1243,7 +1285,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1251,13 +1293,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.4476744186046512</v>
+        <v>0.4266666666666667</v>
       </c>
       <c r="C14">
-        <v>231</v>
+        <v>32</v>
       </c>
       <c r="D14">
-        <v>231</v>
+        <v>32</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1269,19 +1311,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>285</v>
+        <v>43</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K14">
-        <v>0.7692307692307693</v>
+        <v>0.8085106382978723</v>
       </c>
       <c r="L14">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="M14">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1293,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1301,13 +1343,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.4429530201342282</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="C15">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="D15">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1319,19 +1361,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>83</v>
+        <v>30</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K15">
-        <v>0.7619047619047619</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="L15">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="M15">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1343,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1351,13 +1393,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.4067796610169492</v>
+        <v>0.4093959731543624</v>
       </c>
       <c r="C16">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="D16">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1369,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>35</v>
+        <v>88</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K16">
-        <v>0.7407407407407407</v>
+        <v>0.7625</v>
       </c>
       <c r="L16">
-        <v>20</v>
+        <v>122</v>
       </c>
       <c r="M16">
-        <v>20</v>
+        <v>122</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1393,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>7</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1401,13 +1443,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.4</v>
+        <v>0.3597883597883598</v>
       </c>
       <c r="C17">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="D17">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1419,19 +1461,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>45</v>
+        <v>121</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K17">
-        <v>0.7358490566037735</v>
+        <v>0.75</v>
       </c>
       <c r="L17">
-        <v>78</v>
+        <v>27</v>
       </c>
       <c r="M17">
-        <v>78</v>
+        <v>27</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1443,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>28</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1451,13 +1493,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.3386243386243386</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="C18">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="D18">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1469,19 +1511,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>125</v>
+        <v>39</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K18">
-        <v>0.71875</v>
+        <v>0.75</v>
       </c>
       <c r="L18">
-        <v>115</v>
+        <v>27</v>
       </c>
       <c r="M18">
-        <v>115</v>
+        <v>27</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1493,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>45</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1501,13 +1543,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.3222222222222222</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C19">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D19">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1519,19 +1561,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K19">
-        <v>0.6914893617021277</v>
+        <v>0.7450980392156863</v>
       </c>
       <c r="L19">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="M19">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1543,7 +1585,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>29</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1551,13 +1593,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.3220338983050847</v>
+        <v>0.3116883116883117</v>
       </c>
       <c r="C20">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D20">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1569,19 +1611,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K20">
-        <v>0.6666666666666666</v>
+        <v>0.7358490566037735</v>
       </c>
       <c r="L20">
-        <v>32</v>
+        <v>78</v>
       </c>
       <c r="M20">
-        <v>32</v>
+        <v>78</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1593,7 +1635,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1622,16 +1664,16 @@
         <v>57</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K21">
-        <v>0.6666666666666666</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L21">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="M21">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1643,7 +1685,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1651,13 +1693,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.2857142857142857</v>
+        <v>0.257936507936508</v>
       </c>
       <c r="C22">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="D22">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1669,19 +1711,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>55</v>
+        <v>187</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K22">
-        <v>0.6475195822454308</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="L22">
-        <v>248</v>
+        <v>19</v>
       </c>
       <c r="M22">
-        <v>248</v>
+        <v>19</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1693,7 +1735,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>135</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1701,37 +1743,37 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.25</v>
+        <v>0.1586021505376344</v>
       </c>
       <c r="C23">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D23">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23">
-        <v>189</v>
+        <v>313</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K23">
-        <v>0.6046511627906976</v>
+        <v>0.7021276595744681</v>
       </c>
       <c r="L23">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="M23">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1743,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1751,37 +1793,37 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.1474530831099196</v>
+        <v>0.009161859518154056</v>
       </c>
       <c r="C24">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="D24">
-        <v>55</v>
+        <v>187</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>0.86</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.14</v>
       </c>
       <c r="G24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24">
-        <v>318</v>
+        <v>2920</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K24">
-        <v>0.6</v>
+        <v>0.6744186046511628</v>
       </c>
       <c r="L24">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M24">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1793,7 +1835,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1801,87 +1843,63 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.008922880815806247</v>
+        <v>0.008030838419530999</v>
       </c>
       <c r="C25">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D25">
-        <v>91</v>
+        <v>113</v>
       </c>
       <c r="E25">
-        <v>0.6899999999999999</v>
+        <v>0.78</v>
       </c>
       <c r="F25">
-        <v>0.3100000000000001</v>
+        <v>0.22</v>
       </c>
       <c r="G25" t="b">
         <v>1</v>
       </c>
       <c r="H25">
-        <v>3110</v>
+        <v>3088</v>
       </c>
       <c r="J25" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K25">
+        <v>0.6657963446475196</v>
+      </c>
+      <c r="L25">
+        <v>255</v>
+      </c>
+      <c r="M25">
+        <v>255</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="J26" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="K25">
-        <v>0.6</v>
-      </c>
-      <c r="L25">
-        <v>39</v>
-      </c>
-      <c r="M25">
-        <v>39</v>
-      </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17">
-      <c r="A26" s="1" t="s">
+      <c r="K26">
+        <v>0.6458333333333334</v>
+      </c>
+      <c r="L26">
         <v>31</v>
       </c>
-      <c r="B26">
-        <v>0.006343906510851419</v>
-      </c>
-      <c r="C26">
-        <v>19</v>
-      </c>
-      <c r="D26">
-        <v>131</v>
-      </c>
-      <c r="E26">
-        <v>0.85</v>
-      </c>
-      <c r="F26">
-        <v>0.15</v>
-      </c>
-      <c r="G26" t="b">
-        <v>1</v>
-      </c>
-      <c r="H26">
-        <v>2976</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K26">
-        <v>0.5970588235294118</v>
-      </c>
-      <c r="L26">
-        <v>203</v>
-      </c>
       <c r="M26">
-        <v>203</v>
+        <v>31</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1893,21 +1911,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>137</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="J27" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K27">
-        <v>0.575</v>
+        <v>0.64</v>
       </c>
       <c r="L27">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="M27">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1919,21 +1937,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="J28" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K28">
-        <v>0.559322033898305</v>
+        <v>0.5794117647058824</v>
       </c>
       <c r="L28">
-        <v>165</v>
+        <v>197</v>
       </c>
       <c r="M28">
-        <v>165</v>
+        <v>197</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1945,21 +1963,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>130</v>
+        <v>143</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K29">
-        <v>0.550561797752809</v>
+        <v>0.5757575757575758</v>
       </c>
       <c r="L29">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="M29">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1971,21 +1989,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>40</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K30">
-        <v>0.54</v>
+        <v>0.5728813559322034</v>
       </c>
       <c r="L30">
-        <v>27</v>
+        <v>169</v>
       </c>
       <c r="M30">
-        <v>27</v>
+        <v>169</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1997,21 +2015,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>23</v>
+        <v>126</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K31">
-        <v>0.5277777777777778</v>
+        <v>0.5692307692307692</v>
       </c>
       <c r="L31">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="M31">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2023,21 +2041,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K32">
-        <v>0.502092050209205</v>
+        <v>0.55</v>
       </c>
       <c r="L32">
-        <v>120</v>
+        <v>22</v>
       </c>
       <c r="M32">
-        <v>120</v>
+        <v>22</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2049,21 +2067,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>119</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K33">
-        <v>0.5</v>
+        <v>0.547945205479452</v>
       </c>
       <c r="L33">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M33">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2075,21 +2093,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K34">
-        <v>0.453125</v>
+        <v>0.5313807531380753</v>
       </c>
       <c r="L34">
-        <v>29</v>
+        <v>127</v>
       </c>
       <c r="M34">
-        <v>29</v>
+        <v>127</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2101,21 +2119,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>35</v>
+        <v>112</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K35">
-        <v>0.4246575342465753</v>
+        <v>0.5280898876404494</v>
       </c>
       <c r="L35">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="M35">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2132,16 +2150,16 @@
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K36">
-        <v>0.4142857142857143</v>
+        <v>0.525</v>
       </c>
       <c r="L36">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="M36">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2153,21 +2171,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>41</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K37">
-        <v>0.3389830508474576</v>
+        <v>0.5</v>
       </c>
       <c r="L37">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="M37">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2179,21 +2197,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K38">
-        <v>0.2057416267942584</v>
+        <v>0.4871794871794872</v>
       </c>
       <c r="L38">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="M38">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2205,99 +2223,99 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>332</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K39">
-        <v>0.1811023622047244</v>
+        <v>0.4634146341463415</v>
       </c>
       <c r="L39">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M39">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="N39">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O39">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q39">
-        <v>104</v>
+        <v>22</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K40">
-        <v>0.1769230769230769</v>
+        <v>0.4426229508196721</v>
       </c>
       <c r="L40">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="M40">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="N40">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O40">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q40">
-        <v>107</v>
+        <v>34</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K41">
-        <v>0.1706730769230769</v>
+        <v>0.4347826086956522</v>
       </c>
       <c r="L41">
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="M41">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="N41">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O41">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q41">
-        <v>345</v>
+        <v>39</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K42">
-        <v>0.1263982102908277</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="L42">
-        <v>113</v>
+        <v>19</v>
       </c>
       <c r="M42">
-        <v>113</v>
+        <v>19</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2309,21 +2327,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>781</v>
+        <v>26</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K43">
-        <v>0.1226993865030675</v>
+        <v>0.4042553191489361</v>
       </c>
       <c r="L43">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M43">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2335,21 +2353,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>143</v>
+        <v>28</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K44">
-        <v>0.1116279069767442</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="L44">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M44">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2361,21 +2379,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>191</v>
+        <v>39</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K45">
-        <v>0.1104651162790698</v>
+        <v>0.2210526315789474</v>
       </c>
       <c r="L45">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M45">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2387,21 +2405,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>153</v>
+        <v>74</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K46">
-        <v>0.09767441860465116</v>
+        <v>0.2009569377990431</v>
       </c>
       <c r="L46">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="M46">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2413,21 +2431,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>194</v>
+        <v>334</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K47">
-        <v>0.09342560553633218</v>
+        <v>0.1968503937007874</v>
       </c>
       <c r="L47">
-        <v>81</v>
+        <v>25</v>
       </c>
       <c r="M47">
-        <v>81</v>
+        <v>25</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2439,73 +2457,73 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>786</v>
+        <v>102</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K48">
-        <v>0.09202453987730061</v>
+        <v>0.183206106870229</v>
       </c>
       <c r="L48">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="M48">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="N48">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O48">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q48">
-        <v>296</v>
+        <v>107</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K49">
-        <v>0.08453837597330367</v>
+        <v>0.1745283018867924</v>
       </c>
       <c r="L49">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="M49">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="N49">
-        <v>0.97</v>
+        <v>0.93</v>
       </c>
       <c r="O49">
-        <v>0.03000000000000003</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P49" t="b">
         <v>1</v>
       </c>
       <c r="Q49">
-        <v>823</v>
+        <v>175</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K50">
-        <v>0.08116883116883117</v>
+        <v>0.1730769230769231</v>
       </c>
       <c r="L50">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="M50">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2517,73 +2535,73 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>283</v>
+        <v>344</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K51">
-        <v>0.07561728395061729</v>
+        <v>0.1595092024539877</v>
       </c>
       <c r="L51">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="M51">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="N51">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O51">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q51">
-        <v>599</v>
+        <v>137</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K52">
-        <v>0.06469760900140648</v>
+        <v>0.1441860465116279</v>
       </c>
       <c r="L52">
-        <v>138</v>
+        <v>31</v>
       </c>
       <c r="M52">
-        <v>148</v>
+        <v>31</v>
       </c>
       <c r="N52">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O52">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q52">
-        <v>1995</v>
+        <v>184</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K53">
-        <v>0.05967078189300411</v>
+        <v>0.1393939393939394</v>
       </c>
       <c r="L53">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="M53">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2595,33 +2613,33 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>457</v>
+        <v>142</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="K54">
-        <v>0.03626943005181347</v>
+        <v>0.1383647798742138</v>
       </c>
       <c r="L54">
-        <v>112</v>
+        <v>22</v>
       </c>
       <c r="M54">
-        <v>131</v>
+        <v>22</v>
       </c>
       <c r="N54">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="O54">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="P54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q54">
-        <v>2976</v>
+        <v>137</v>
       </c>
     </row>
     <row r="55" spans="10:17">
@@ -2629,25 +2647,25 @@
         <v>84</v>
       </c>
       <c r="K55">
-        <v>0.03374777975133215</v>
+        <v>0.1383647798742138</v>
       </c>
       <c r="L55">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="M55">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N55">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="O55">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="P55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q55">
-        <v>544</v>
+        <v>137</v>
       </c>
     </row>
     <row r="56" spans="10:17">
@@ -2655,77 +2673,467 @@
         <v>85</v>
       </c>
       <c r="K56">
-        <v>0.02916666666666667</v>
+        <v>0.1360544217687075</v>
       </c>
       <c r="L56">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="M56">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="N56">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="O56">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="P56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q56">
-        <v>932</v>
+        <v>127</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>30</v>
+        <v>86</v>
       </c>
       <c r="K57">
-        <v>0.01985502678852821</v>
+        <v>0.1187010078387458</v>
       </c>
       <c r="L57">
-        <v>63</v>
+        <v>106</v>
       </c>
       <c r="M57">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="N57">
-        <v>0.6899999999999999</v>
+        <v>0.99</v>
       </c>
       <c r="O57">
-        <v>0.3100000000000001</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P57" t="b">
         <v>1</v>
       </c>
       <c r="Q57">
-        <v>3110</v>
+        <v>787</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K58">
-        <v>0.01642178046672429</v>
+        <v>0.1107692307692308</v>
       </c>
       <c r="L58">
+        <v>36</v>
+      </c>
+      <c r="M58">
+        <v>38</v>
+      </c>
+      <c r="N58">
+        <v>0.95</v>
+      </c>
+      <c r="O58">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="P58" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q58">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="59" spans="10:17">
+      <c r="J59" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K59">
+        <v>0.1092783505154639</v>
+      </c>
+      <c r="L59">
+        <v>53</v>
+      </c>
+      <c r="M59">
+        <v>54</v>
+      </c>
+      <c r="N59">
+        <v>0.98</v>
+      </c>
+      <c r="O59">
+        <v>0.02000000000000002</v>
+      </c>
+      <c r="P59" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q59">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="60" spans="10:17">
+      <c r="J60" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K60">
+        <v>0.1043285238623751</v>
+      </c>
+      <c r="L60">
+        <v>94</v>
+      </c>
+      <c r="M60">
+        <v>94</v>
+      </c>
+      <c r="N60">
+        <v>1</v>
+      </c>
+      <c r="O60">
+        <v>0</v>
+      </c>
+      <c r="P60" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q60">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="61" spans="10:17">
+      <c r="J61" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K61">
+        <v>0.09170305676855896</v>
+      </c>
+      <c r="L61">
+        <v>21</v>
+      </c>
+      <c r="M61">
+        <v>22</v>
+      </c>
+      <c r="N61">
+        <v>0.95</v>
+      </c>
+      <c r="O61">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="P61" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q61">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="62" spans="10:17">
+      <c r="J62" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K62">
+        <v>0.09164733178654293</v>
+      </c>
+      <c r="L62">
+        <v>79</v>
+      </c>
+      <c r="M62">
+        <v>84</v>
+      </c>
+      <c r="N62">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O62">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P62" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q62">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="63" spans="10:17">
+      <c r="J63" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K63">
+        <v>0.0898876404494382</v>
+      </c>
+      <c r="L63">
+        <v>24</v>
+      </c>
+      <c r="M63">
+        <v>24</v>
+      </c>
+      <c r="N63">
+        <v>1</v>
+      </c>
+      <c r="O63">
+        <v>0</v>
+      </c>
+      <c r="P63" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q63">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="64" spans="10:17">
+      <c r="J64" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K64">
+        <v>0.08771106941838649</v>
+      </c>
+      <c r="L64">
+        <v>187</v>
+      </c>
+      <c r="M64">
+        <v>198</v>
+      </c>
+      <c r="N64">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O64">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P64" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q64">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="65" spans="10:17">
+      <c r="J65" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="K65">
+        <v>0.08540372670807453</v>
+      </c>
+      <c r="L65">
+        <v>55</v>
+      </c>
+      <c r="M65">
+        <v>61</v>
+      </c>
+      <c r="N65">
+        <v>0.9</v>
+      </c>
+      <c r="O65">
+        <v>0.09999999999999998</v>
+      </c>
+      <c r="P65" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q65">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="66" spans="10:17">
+      <c r="J66" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K66">
+        <v>0.07467532467532467</v>
+      </c>
+      <c r="L66">
+        <v>23</v>
+      </c>
+      <c r="M66">
+        <v>23</v>
+      </c>
+      <c r="N66">
+        <v>1</v>
+      </c>
+      <c r="O66">
+        <v>0</v>
+      </c>
+      <c r="P66" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q66">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="67" spans="10:17">
+      <c r="J67" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="K67">
+        <v>0.0603448275862069</v>
+      </c>
+      <c r="L67">
+        <v>21</v>
+      </c>
+      <c r="M67">
+        <v>22</v>
+      </c>
+      <c r="N67">
+        <v>0.95</v>
+      </c>
+      <c r="O67">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="P67" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q67">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="68" spans="10:17">
+      <c r="J68" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K68">
+        <v>0.05194805194805195</v>
+      </c>
+      <c r="L68">
+        <v>160</v>
+      </c>
+      <c r="M68">
+        <v>187</v>
+      </c>
+      <c r="N68">
+        <v>0.86</v>
+      </c>
+      <c r="O68">
+        <v>0.14</v>
+      </c>
+      <c r="P68" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q68">
+        <v>2920</v>
+      </c>
+    </row>
+    <row r="69" spans="10:17">
+      <c r="J69" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K69">
+        <v>0.04778761061946903</v>
+      </c>
+      <c r="L69">
+        <v>27</v>
+      </c>
+      <c r="M69">
+        <v>29</v>
+      </c>
+      <c r="N69">
+        <v>0.93</v>
+      </c>
+      <c r="O69">
+        <v>0.06999999999999995</v>
+      </c>
+      <c r="P69" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q69">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="70" spans="10:17">
+      <c r="J70" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="K70">
+        <v>0.03531598513011153</v>
+      </c>
+      <c r="L70">
         <v>19</v>
       </c>
-      <c r="M58">
-        <v>23</v>
-      </c>
-      <c r="N58">
-        <v>0.83</v>
-      </c>
-      <c r="O58">
-        <v>0.17</v>
-      </c>
-      <c r="P58" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q58">
-        <v>1138</v>
+      <c r="M70">
+        <v>26</v>
+      </c>
+      <c r="N70">
+        <v>0.73</v>
+      </c>
+      <c r="O70">
+        <v>0.27</v>
+      </c>
+      <c r="P70" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q70">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="71" spans="10:17">
+      <c r="J71" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K71">
+        <v>0.03423236514522822</v>
+      </c>
+      <c r="L71">
+        <v>33</v>
+      </c>
+      <c r="M71">
+        <v>37</v>
+      </c>
+      <c r="N71">
+        <v>0.89</v>
+      </c>
+      <c r="O71">
+        <v>0.11</v>
+      </c>
+      <c r="P71" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q71">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="72" spans="10:17">
+      <c r="J72" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="K72">
+        <v>0.03035559410234172</v>
+      </c>
+      <c r="L72">
+        <v>35</v>
+      </c>
+      <c r="M72">
+        <v>43</v>
+      </c>
+      <c r="N72">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="O72">
+        <v>0.1899999999999999</v>
+      </c>
+      <c r="P72" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q72">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="73" spans="10:17">
+      <c r="J73" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K73">
+        <v>0.02770780856423174</v>
+      </c>
+      <c r="L73">
+        <v>88</v>
+      </c>
+      <c r="M73">
+        <v>113</v>
+      </c>
+      <c r="N73">
+        <v>0.78</v>
+      </c>
+      <c r="O73">
+        <v>0.22</v>
+      </c>
+      <c r="P73" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q73">
+        <v>3088</v>
       </c>
     </row>
   </sheetData>
